--- a/mybatis/mybatisnote.xlsx
+++ b/mybatis/mybatisnote.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B206FA5-C240-4852-A3D4-559FA1318CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +69,25 @@
   </si>
   <si>
     <t>xml文件中sql查询别名需与model对象一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis在循环内查询序列值重复解决方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在查询方法上增加 useCache="false" flushCache="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCache="false"代表该结果不使用二级缓存，flushCache="true"代表清空缓存信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,6 +260,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,22 +504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -502,7 +549,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -515,7 +562,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -530,7 +577,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -539,35 +586,41 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -577,5 +630,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mybatis/mybatisnote.xlsx
+++ b/mybatis/mybatisnote.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B206FA5-C240-4852-A3D4-559FA1318CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE8205-0D95-4E81-B5DE-083231489C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,31 @@
   </si>
   <si>
     <t>useCache="false"代表该结果不使用二级缓存，flushCache="true"代表清空缓存信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert ignore into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略唯一索引插入不重复数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;allowMultiQueries=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接-允许批量操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlSession.flushStatements与sqlSession.commit的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sqlSession.flushStatements有返回值
+2.sqlSession.flushStatements数据提交失败后不会关闭链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,14 +533,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="55.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -601,22 +625,34 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
